--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/MLR.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/MLR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/MLR.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/MLR.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/MLR.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/MLR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,79 +485,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 4, 6, 8, 9, 10, 13, 18, 21, 22, 23, 31, 34, 35, 37, 38, 42]</t>
+          <t>[0, 1, 2, 4, 6, 8, 10, 17, 20, 21, 25, 31, 32, 34, 35, 36, 41, 42]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.551984126984127</t>
+          <t>0.48523809523809525</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.03954747433404249</t>
+          <t>0.05597225537531272</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.07059790442123577</t>
+          <t>0.08031401754961442</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9261771073993449</t>
+          <t>0.8711959937419493</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.40282726287841797</t>
+          <t>1.4162447452545166</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[7, 10, 14, 17, 23, 24, 25, 26, 27, 28, 29, 32, 35, 37, 38, 39, 40, 41]</t>
+          <t>[2, 7, 11, 12, 14, 16, 19, 21, 22, 23, 27, 28, 29, 31, 32, 33, 34, 35, 37, 38, 39, 42, 44]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5736111111111111</t>
+          <t>0.7747619047619048</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.041235971327272705</t>
+          <t>0.055524040558482125</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.09449373637004302</t>
+          <t>0.3475614739972258</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.8677445791813897</t>
+          <t>-1.4121812077839584</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.38105010986328125</t>
+          <t>1.3753700256347656</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -569,37 +569,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 6, 7, 8, 9, 11, 13, 16, 20, 23, 27, 34, 36, 37, 39, 40, 42]</t>
+          <t>[0, 3, 4, 5, 6, 12, 13, 14, 17, 21, 25, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 39, 41, 43]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7113095238095238</t>
+          <t>0.5809523809523809</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.04238311629969647</t>
+          <t>0.032963264292250403</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.07027663617771907</t>
+          <t>0.2731737483458802</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9268474668708357</t>
+          <t>-0.4901314907528471</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4025759696960449</t>
+          <t>1.3417718410491943</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -611,79 +611,79 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 6, 9, 12, 18, 24, 26, 32, 33, 35, 37, 38, 41, 42, 43]</t>
+          <t>[0, 2, 6, 9, 12, 15, 16, 17, 20, 23, 24, 29, 30, 31, 32, 33, 34, 35, 36, 37, 41, 44]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.448015873015873</t>
+          <t>0.20476190476190476</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.04027030697018663</t>
+          <t>0.048141020020598474</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.05847960692143187</t>
+          <t>0.30294223538581155</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.9493456988711304</t>
+          <t>-0.8325942535069859</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.40186285972595215</t>
+          <t>1.3930246829986572</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[0, 3, 5, 6, 8, 12, 13, 14, 15, 18, 21, 22, 28, 29, 33, 36, 37, 38, 40, 42, 43]</t>
+          <t>[1, 3, 4, 6, 8, 9, 10, 11, 12, 16, 23, 27, 31, 34, 35, 36, 37, 38, 39, 43]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8115079365079365</t>
+          <t>0.8082539682539682</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.06512012385999907</t>
+          <t>0.05208136091378779</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.07754200111342084</t>
+          <t>0.07918116722600549</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.9109402549794191</t>
+          <t>0.8748039958124669</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3992178440093994</t>
+          <t>1.3931167125701904</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -695,205 +695,205 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[0, 1, 5, 6, 8, 12, 13, 15, 16, 18, 20, 26, 27, 30, 34, 36, 37, 39, 40, 41, 42, 43]</t>
+          <t>[1, 3, 4, 6, 7, 10, 12, 13, 14, 15, 17, 20, 22, 23, 24, 26, 30, 31, 32, 33, 36, 39, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.7313492063492063</t>
+          <t>0.7352380952380952</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.043992257998347085</t>
+          <t>0.05673374254602367</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.05857531101994849</t>
+          <t>0.09118499156827493</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.9491797678293465</t>
+          <t>0.8339673905499282</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.377849817276001</t>
+          <t>1.5694005489349365</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 3, 5, 8, 9, 11, 12, 17, 20, 21, 22, 24, 26, 27, 28, 32, 33, 36, 37, 38]</t>
+          <t>[0, 3, 4, 6, 10, 11, 13, 14, 18, 19, 20, 21, 24, 31, 34, 35, 36, 39, 42, 43]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.0178571428571428</t>
+          <t>0.5147619047619048</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0496411932326524</t>
+          <t>0.05683603711162664</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.07085459167169712</t>
+          <t>0.09501590224686113</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.9256393054751694</t>
+          <t>0.8197234400269177</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3938453197479248</t>
+          <t>1.547410488128662</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 4, 6, 7, 9, 12, 17, 27, 32, 33, 37, 39, 41, 43]</t>
+          <t>[0, 10, 12, 17, 21, 23, 26, 33, 35, 36, 41, 44]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.5081349206349206</t>
+          <t>0.0846031746031746</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.04441389512782074</t>
+          <t>0.055656051383525626</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.058948300495529314</t>
+          <t>0.10684497608648583</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9485304921356573</t>
+          <t>0.7720419772404081</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3772869110107422</t>
+          <t>1.4924402236938477</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[11, 17, 19, 20, 24, 26, 31, 35, 38, 39, 40]</t>
+          <t>[4, 6, 8, 10, 12, 14, 16, 20, 23, 26, 28, 30, 32, 33, 34, 35, 36, 38, 40, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.15476190476190477</t>
+          <t>0.7217460317460318</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.06574712969536675</t>
+          <t>0.03708873614762187</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.05801490678525159</t>
+          <t>0.2662942054884823</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.9501475351664301</t>
+          <t>-0.4160223290400058</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.38062596321105957</t>
+          <t>1.4981496334075928</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 6, 10, 14, 15, 16, 22, 23, 24, 27, 31, 32, 35, 37, 38, 40, 41, 42]</t>
+          <t>[1, 3, 5, 6, 8, 12, 13, 15, 17, 19, 20, 23, 24, 27, 30, 31, 32, 33, 36, 37, 41, 43, 44]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.5013888888888889</t>
+          <t>0.4922222222222222</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.04023399073532767</t>
+          <t>0.048502569370469095</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.07675187271381728</t>
+          <t>0.3086231322706812</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.912745989052982</t>
+          <t>-0.9019698066947115</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.39455103874206543</t>
+          <t>1.4334046840667725</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -905,205 +905,205 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 4, 7, 10, 11, 12, 13, 15, 16, 17, 18, 22, 24, 26, 27, 28, 31, 32, 35, 37, 38, 41]</t>
+          <t>[2, 5, 9, 13, 14, 17, 19, 20, 21, 22, 26, 28, 30, 31, 32, 33, 36, 37, 38, 39, 43, 44]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.8886904761904761</t>
+          <t>0.46365079365079365</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.05062694024188966</t>
+          <t>0.0474989893398909</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.09069334707268495</t>
+          <t>0.09195305713530853</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.878168862742562</t>
+          <t>0.8311585728879229</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.379180908203125</t>
+          <t>1.5011348724365234</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 9, 10, 13, 14, 15, 17, 18, 20, 23, 28, 29, 30, 32, 36, 37, 38, 41, 42]</t>
+          <t>[4, 6, 7, 8, 9, 13, 14, 17, 19, 21, 23, 25, 26, 27, 28, 29, 30, 32, 33, 34, 35, 41, 44]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.7130952380952381</t>
+          <t>0.6949206349206349</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.049070318604390976</t>
+          <t>0.053447350333650834</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.07877250872151695</t>
+          <t>1.1989693653155005</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.9080912642595473</t>
+          <t>-27.70534971924887</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3722851276397705</t>
+          <t>1.4497122764587402</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[1, 2, 5, 8, 11, 15, 16, 19, 22, 25, 28, 32, 34, 35, 37, 39, 41, 42]</t>
+          <t>[0, 1, 7, 8, 11, 12, 14, 15, 20, 23, 24, 25, 27, 28, 30, 33, 34, 35, 36, 37, 38, 39, 40, 42, 44]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.0668650793650793</t>
+          <t>1.0733333333333335</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0439420499997966</t>
+          <t>0.053578450938531495</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.04779146647831842</t>
+          <t>0.41553213594510036</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.9661695205823118</t>
+          <t>-2.44790984706663</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.36672234535217285</t>
+          <t>1.3910839557647705</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 9, 11, 12, 14, 16, 18, 19, 26, 32, 34, 35, 37, 39, 41, 43, 44]</t>
+          <t>[2, 3, 7, 11, 12, 16, 19, 23, 24, 27, 29, 30, 33, 36, 39, 41, 43]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.6456349206349206</t>
+          <t>0.34984126984126984</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.05002107358432162</t>
+          <t>0.057475093958815025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.059670372295156225</t>
+          <t>0.1319783655689867</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.9472618448846526</t>
+          <t>0.6521819143778658</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.378861665725708</t>
+          <t>1.4169752597808838</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[0, 2, 4, 6, 8, 11, 14, 15, 16, 19, 21, 24, 28, 31, 34, 35, 37, 39, 43, 44]</t>
+          <t>[3, 5, 6, 7, 8, 10, 14, 17, 18, 20, 24, 27, 28, 29, 30, 32, 33, 35, 37, 38, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.6178571428571429</t>
+          <t>0.6058730158730159</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.052220647387181886</t>
+          <t>0.04892745401816366</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.0664892137465974</t>
+          <t>0.40548648470054227</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.9345198247768104</t>
+          <t>-2.2832158489440277</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.368074893951416</t>
+          <t>1.4219329357147217</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1115,37 +1115,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 8, 9, 10, 20, 21, 23, 24, 32, 34, 35, 36, 37, 38, 41]</t>
+          <t>[0, 8, 9, 15, 19, 20, 22, 23, 26, 28, 34, 36]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.6482142857142856</t>
+          <t>0.3277777777777778</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.04661396124055027</t>
+          <t>0.04904525344462178</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.06959984534213988</t>
+          <t>0.9333949011152514</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.9282496560360786</t>
+          <t>-16.39712633381006</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.373211145401001</t>
+          <t>1.4987947940826416</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1157,37 +1157,37 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[0, 3, 5, 8, 9, 10, 15, 22, 27, 28, 30, 31, 32, 35, 37, 38, 42, 43]</t>
+          <t>[0, 2, 4, 6, 11, 15, 16, 17, 20, 21, 26, 29, 31, 32, 36, 37, 38, 39, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.8184523809523809</t>
+          <t>0.6614285714285715</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.045063870688888875</t>
+          <t>0.04782955568486119</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.07124636481986513</t>
+          <t>0.18449299379783282</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.9248147134963334</t>
+          <t>0.3203169719588306</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.37267565727233887</t>
+          <t>1.4934170246124268</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1199,331 +1199,331 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 6, 8, 9, 11, 12, 16, 17, 18, 19, 21, 26, 27, 28, 29, 30, 31, 34, 35, 37, 40, 41, 44]</t>
+          <t>[0, 1, 3, 4, 9, 10, 14, 17, 23, 24, 26, 28, 29, 33, 35, 36, 37, 38, 39, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.955952380952381</t>
+          <t>1.017777777777778</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.05155874402701025</t>
+          <t>0.05536561457603082</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.07843531023240909</t>
+          <t>0.16646319078225133</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.9088764405929803</t>
+          <t>0.44667142462428533</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.3778836727142334</t>
+          <t>1.4079687595367432</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 6, 7, 9, 13, 19, 21, 22, 26, 32, 33, 34, 36, 37, 41, 43]</t>
+          <t>[0, 1, 8, 9, 12, 13, 15, 17, 18, 20, 21, 24, 28, 29, 33, 34, 35, 37, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.5845238095238096</t>
+          <t>0.3338095238095238</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0655551621332617</t>
+          <t>0.04856501932471535</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.061853754565342874</t>
+          <t>0.20011228838103629</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.9433317799416935</t>
+          <t>0.20036059800778205</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.3709380626678467</t>
+          <t>1.4955463409423828</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 6, 7, 8, 9, 10, 16, 17, 18, 20, 21, 24, 26, 28, 33, 36, 37, 38, 41, 42]</t>
+          <t>[1, 4, 5, 6, 10, 11, 12, 14, 15, 17, 22, 23, 26, 30, 33, 35, 37, 38, 42]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.9859126984126985</t>
+          <t>0.6480952380952382</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.04924938084887426</t>
+          <t>0.04482930789092959</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.09297897000767887</t>
+          <t>0.24738180045593758</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.8719507910026595</t>
+          <t>-0.22203082538681085</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.3669877052307129</t>
+          <t>1.4298505783081055</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[1, 3, 5, 7, 8, 12, 13, 14, 16, 19, 20, 32, 34, 37, 38, 39, 43]</t>
+          <t>[2, 3, 4, 5, 7, 8, 12, 13, 16, 21, 22, 24, 26, 27, 31, 36, 38, 39, 44]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.6581349206349206</t>
+          <t>0.1784126984126984</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.0479347972213402</t>
+          <t>0.05983965060472546</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.06362893561130663</t>
+          <t>0.053237842771147396</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.9400323879858249</t>
+          <t>0.9434037615654375</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.3928649425506592</t>
+          <t>1.622920036315918</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 5, 7, 9, 10, 11, 12, 15, 16, 23, 25, 26, 27, 35, 36, 37, 39, 41, 44]</t>
+          <t>[2, 3, 4, 5, 7, 8, 15, 16, 21, 24, 26, 32, 34, 36, 37, 39, 41, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.5884920634920634</t>
+          <t>0.506031746031746</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.05089276969114611</t>
+          <t>0.054786514869034145</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.0635447596232231</t>
+          <t>0.15571946142090087</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.9401909477356105</t>
+          <t>0.5157914487460438</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.41751956939697266</t>
+          <t>1.3988478183746338</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[0, 2, 4, 8, 9, 10, 13, 16, 19, 24, 26, 29, 30, 35, 36, 37, 39, 44]</t>
+          <t>[0, 1, 2, 4, 6, 10, 18, 21, 25, 28, 33, 34, 36, 37, 38, 39, 43]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.4170634920634921</t>
+          <t>0.45206349206349206</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.0417524647529607</t>
+          <t>0.04483830076570924</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.061734620390575076</t>
+          <t>0.0981916535240404</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.943549862744903</t>
+          <t>0.807471150332189</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.38558435440063477</t>
+          <t>1.388331413269043</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[5, 6, 8, 11, 12, 14, 15, 18, 20, 26, 29, 30, 31, 34, 35, 37, 44]</t>
+          <t>[3, 9, 14, 20, 25, 27, 28, 29, 31, 36, 38, 39, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.4027777777777778</t>
+          <t>0.3784126984126984</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.049195134226318285</t>
+          <t>0.06677984001079915</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.057214001876047096</t>
+          <t>0.2329872696441829</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.9515144763952839</t>
+          <t>-0.0839545005315363</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.36542844772338867</t>
+          <t>1.3837590217590332</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[3, 5, 6, 7, 8, 13, 15, 18, 22, 23, 24, 26, 27, 28, 29, 33, 35, 37, 41]</t>
+          <t>[3, 5, 6, 10, 14, 15, 21, 24, 25, 26, 28, 29, 30, 31, 33, 35, 36, 37, 38, 41, 42]</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.625</t>
+          <t>0.6819047619047619</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.06636040959472853</t>
+          <t>0.05263063596019354</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.10614920717408545</t>
+          <t>0.15576140365144045</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.8331059138632108</t>
+          <t>0.515530575486737</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.38489460945129395</t>
+          <t>1.426713466644287</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1535,217 +1535,217 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[2, 5, 6, 7, 8, 9, 10, 13, 14, 16, 18, 23, 28, 29, 30, 31, 32, 34, 35, 37, 40, 41, 42]</t>
+          <t>[0, 3, 4, 6, 10, 12, 13, 15, 16, 17, 19, 20, 21, 23, 26, 28, 29, 30, 34, 36, 39, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.7428571428571428</t>
+          <t>0.5436507936507937</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.043519502054163786</t>
+          <t>0.05187453992848427</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.07369669637109223</t>
+          <t>0.3468147528945987</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.9195541808543486</t>
+          <t>-1.4018274038310254</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.3960998058319092</t>
+          <t>1.5106086730957031</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[5, 6, 7, 8, 9, 10, 11, 19, 20, 21, 23, 24, 26, 27, 28, 30, 34, 35, 37, 38, 40, 43]</t>
+          <t>[2, 3, 9, 12, 16, 18, 19, 21, 24, 25, 27, 28, 29, 31, 32, 33, 34, 35, 36, 38, 40, 41, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.6708333333333334</t>
+          <t>0.7620634920634921</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.050204248378943564</t>
+          <t>0.04397481256592879</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.08642855235341308</t>
+          <t>7.071144329055586</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.8893575164081701</t>
+          <t>-997.4494277555539</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.36716341972351074</t>
+          <t>1.3937978744506836</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[2, 4, 7, 8, 9, 12, 13, 14, 15, 16, 20, 25, 27, 30, 31, 37, 38, 43, 44]</t>
+          <t>[1, 2, 5, 8, 9, 10, 11, 14, 15, 16, 25, 28, 29, 31, 32, 33, 34, 35, 37, 40, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.43293650793650795</t>
+          <t>1.0001587301587302</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.05472270990206272</t>
+          <t>0.044700073282675515</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.04688328591412992</t>
+          <t>0.32489855061165956</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.9674430641878999</t>
+          <t>-1.1078622052700284</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.36859798431396484</t>
+          <t>1.513655424118042</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 5, 8, 12, 13, 14, 18, 25, 28, 29, 32, 33, 34, 35, 37, 38, 41, 42, 43, 44]</t>
+          <t>[4, 6, 9, 12, 13, 15, 18, 19, 20, 21, 23, 24, 26, 28, 29, 33, 34, 35, 36, 37, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.7609126984126984</t>
+          <t>0.5812698412698412</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.06396061844398507</t>
+          <t>0.0604288156335933</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.05858401610967141</t>
+          <t>0.2552978259226806</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.9491646615483548</t>
+          <t>-0.3014901986638501</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.3640873432159424</t>
+          <t>1.3685166835784912</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[0, 3, 6, 8, 12, 13, 14, 17, 20, 21, 25, 30, 34, 35, 37, 38, 39, 43]</t>
+          <t>[3, 6, 9, 10, 11, 13, 14, 15, 16, 19, 21, 24, 25, 28, 29, 32, 33, 34, 35, 38, 39, 42]</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.4097222222222222</t>
+          <t>0.6346031746031746</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.04621191263693021</t>
+          <t>0.05432853978957129</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.06040152747594292</t>
+          <t>0.4634538765120445</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.9459615005138097</t>
+          <t>-3.289036155237252</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.3645470142364502</t>
+          <t>1.4851467609405518</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[3, 8, 9, 10, 16, 17, 18, 24, 28, 29, 31, 34, 36, 37, 43, 44]</t>
+          <t>[1, 2, 6, 9, 13, 14, 15, 16, 18, 29, 32, 34, 35, 39, 42, 43]</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1755,153 +1755,153 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.3845238095238095</t>
+          <t>0.28317460317460313</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.054326866119768835</t>
+          <t>0.0655339697468009</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.061410366767289365</t>
+          <t>0.09610242417743158</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.9441413004577346</t>
+          <t>0.8155768843670719</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.3668022155761719</t>
+          <t>1.39485764503479</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 5, 7, 10, 13, 15, 19, 28, 30, 31, 32, 33, 37, 39, 40]</t>
+          <t>[1, 4, 5, 6, 7, 10, 13, 15, 16, 17, 18, 20, 23, 26, 27, 29, 31, 33, 34, 35, 36, 37, 38, 41]</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.5434523809523809</t>
+          <t>0.39619047619047615</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.04327681333374564</t>
+          <t>0.059656289846934385</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.05800484204840882</t>
+          <t>0.19898329136642648</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.9501648310113778</t>
+          <t>0.20935798457782762</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.36736369132995605</t>
+          <t>1.4993984699249268</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[9, 12, 13, 14, 15, 18, 24, 29, 30, 31, 34, 39, 40, 41]</t>
+          <t>[5, 7, 8, 10, 11, 12, 13, 14, 16, 17, 19, 20, 26, 30, 31, 33, 34, 35, 36, 38, 40, 43, 44]</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.1845238095238095</t>
+          <t>0.5995238095238096</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.0699293791284065</t>
+          <t>0.0602576553562185</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.0748964831690417</t>
+          <t>0.2565199183501448</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.91691353358784</t>
+          <t>-0.31398030283286715</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.36162614822387695</t>
+          <t>1.3917076587677002</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[0, 4, 6, 10, 11, 12, 13, 14, 16, 19, 20, 21, 24, 28, 30, 32, 37, 41, 44]</t>
+          <t>[1, 3, 4, 6, 9, 10, 12, 14, 16, 19, 22, 25, 27, 28, 29, 33, 34, 35, 36, 37, 40, 41, 42]</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.5101190476190476</t>
+          <t>1.089206349206349</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.05690888920717667</t>
+          <t>0.044462979738580224</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.06865729905220132</t>
+          <t>0.4464481594066529</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.930179835582098</t>
+          <t>-2.980051966810034</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.36592578887939453</t>
+          <t>1.7365663051605225</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1913,133 +1913,133 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[1, 2, 5, 6, 7, 8, 13, 14, 15, 16, 22, 25, 28, 34, 35, 36, 37, 38, 40]</t>
+          <t>[1, 4, 6, 7, 8, 9, 10, 13, 14, 27, 28, 29, 31, 32, 33, 34, 35, 36, 40, 44]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.7035714285714285</t>
+          <t>0.6033333333333333</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.039969724359066816</t>
+          <t>0.05040955980694033</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.07686600154795158</t>
+          <t>0.2994204106337702</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.9124863054248622</t>
+          <t>-0.7902326449520398</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.3665189743041992</t>
+          <t>1.4143357276916504</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 7, 8, 14, 15, 27, 31, 35, 37, 42, 44]</t>
+          <t>[0, 2, 3, 4, 6, 7, 10, 11, 14, 17, 22, 24, 25, 26, 28, 29, 30, 32, 33, 34, 35, 36, 39, 42, 44]</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.39722222222222225</t>
+          <t>0.8550793650793651</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.03521364495406025</t>
+          <t>0.03772978348426155</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.055272745959605116</t>
+          <t>0.20773636564928924</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.954748860480897</t>
+          <t>0.13826897792750614</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.3669440746307373</t>
+          <t>1.3815104961395264</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 10, 13, 14, 17, 18, 21, 25, 27, 29, 30, 31, 32, 37, 39, 42]</t>
+          <t>[3, 6, 7, 15, 18, 25, 26, 27, 28, 32, 33, 36, 38, 42, 44]</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.23531746031746031</t>
+          <t>0.313968253968254</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.049130405715497906</t>
+          <t>0.05359171868301267</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.05297475419195825</t>
+          <t>0.05624786537180053</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.9584333199412667</t>
+          <t>0.9368230348291383</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.367354154586792</t>
+          <t>1.402350664138794</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[4, 6, 7, 8, 9, 10, 13, 14, 15, 18, 19, 25, 26, 30, 32, 34, 36, 37, 38, 39, 44]</t>
+          <t>[1, 2, 3, 5, 8, 10, 11, 13, 19, 22, 23, 26, 30, 31, 35, 36, 37, 39, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2049,153 +2049,153 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.6488095238095238</t>
+          <t>0.7241269841269841</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.05352369997446722</t>
+          <t>0.05724205328302617</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.07908723311521511</t>
+          <t>0.08845153219055828</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.9073553804769713</t>
+          <t>0.8437725336284938</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.3679184913635254</t>
+          <t>1.4674663543701172</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[0, 3, 7, 8, 9, 12, 18, 19, 25, 29, 35, 36, 37, 38, 41, 43, 44]</t>
+          <t>[0, 1, 3, 4, 7, 9, 10, 11, 14, 16, 17, 19, 20, 21, 22, 27, 28, 30, 32, 33, 35, 36, 38, 39, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.5890873015873016</t>
+          <t>1.3741269841269843</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.046603787396596943</t>
+          <t>0.05077224002954374</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.05917503666785803</t>
+          <t>0.23511460948178206</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.9481337905312166</t>
+          <t>-0.1038394241215348</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.36624574661254883</t>
+          <t>1.4522156715393066</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 10, 12, 14, 20, 23, 24, 25, 26, 30, 34, 35, 37, 38, 39, 41, 44]</t>
+          <t>[0, 1, 2, 4, 5, 6, 8, 9, 10, 13, 14, 19, 23, 25, 26, 27, 30, 31, 32, 33, 35, 36, 39, 40, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.37083333333333335</t>
+          <t>0.8287301587301588</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.045181886439086084</t>
+          <t>0.06107753799741426</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.06951941582912867</t>
+          <t>0.23749027923317984</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.9284153894742353</t>
+          <t>-0.126259183475667</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.366391658782959</t>
+          <t>1.4032740592956543</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 13, 18, 20, 23, 28, 31, 34, 39, 40, 42]</t>
+          <t>[1, 3, 4, 7, 8, 10, 13, 14, 19, 20, 23, 25, 26, 29, 30, 31, 32, 33, 36, 41, 42]</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.2220238095238095</t>
+          <t>0.49238095238095236</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.06136410757763703</t>
+          <t>0.05851232558041954</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.08142193327507288</t>
+          <t>1.040336176546381</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.9018048001697562</t>
+          <t>-20.611955802058212</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.36498069763183594</t>
+          <t>1.349696159362793</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2207,37 +2207,37 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[1, 6, 9, 10, 11, 12, 13, 15, 18, 22, 23, 28, 29, 32, 34, 35, 36, 37, 38, 42, 43]</t>
+          <t>[2, 3, 4, 5, 7, 9, 12, 13, 14, 16, 19, 21, 27, 28, 29, 31, 32, 36, 37, 39, 41, 44]</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.6746031746031745</t>
+          <t>0.6725396825396825</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.05897653263581722</t>
+          <t>0.06230250503387001</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.08776061105540743</t>
+          <t>0.11075680556012109</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.885920734799764</t>
+          <t>0.7550443214471351</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.3663308620452881</t>
+          <t>1.3828446865081787</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2249,79 +2249,79 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[0, 8, 9, 17, 22, 25, 26, 29, 34, 37, 39, 40, 42, 44]</t>
+          <t>[0, 1, 2, 5, 6, 7, 8, 10, 13, 17, 22, 24, 26, 29, 32, 33, 34, 35, 36, 37, 39, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.1121031746031746</t>
+          <t>0.5279365079365079</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.05089837784720648</t>
+          <t>0.05058862879545321</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.0322171125059842</t>
+          <t>0.247706658593186</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.9846262198700378</t>
+          <t>-0.22524243849156966</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.3669431209564209</t>
+          <t>1.477128505706787</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[1, 3, 5, 14, 21, 23, 25, 27, 28, 30, 31, 34, 35, 37, 40, 42]</t>
+          <t>[1, 4, 6, 7, 8, 10, 12, 13, 17, 19, 23, 25, 26, 27, 29, 30, 33, 34, 35, 36, 39, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.46865079365079365</t>
+          <t>0.7465079365079366</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.05270677114319593</t>
+          <t>0.046957459218040364</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.06297895128205999</t>
+          <t>0.17906440768705165</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.9412512964275381</t>
+          <t>0.3597269679634151</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.36514878273010254</t>
+          <t>1.4199116230010986</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2333,79 +2333,79 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[0, 3, 4, 9, 10, 14, 16, 18, 19, 23, 29, 31, 35, 37, 38, 39]</t>
+          <t>[2, 3, 5, 6, 7, 9, 10, 15, 16, 17, 19, 21, 22, 25, 30, 33, 35, 36, 38, 39, 42, 44]</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.37083333333333335</t>
+          <t>0.3925396825396826</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.06019395032241248</t>
+          <t>0.03667567230846374</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.06010106853648878</t>
+          <t>12.525330377983124</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.9464977772669607</t>
+          <t>-3131.745024833087</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.36696505546569824</t>
+          <t>1.5373280048370361</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 6, 7, 12, 14, 18, 25, 28, 32, 35, 36, 37, 38, 44]</t>
+          <t>[4, 5, 7, 8, 9, 10, 11, 13, 14, 18, 22, 25, 30, 31, 32, 36, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.4386904761904762</t>
+          <t>0.5123809523809524</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.05511491581537995</t>
+          <t>0.04870285328174162</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.07497955051963201</t>
+          <t>0.07354568550254652</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.9167291297358838</t>
+          <t>0.8919907203728613</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.3627469539642334</t>
+          <t>1.5621635913848877</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2417,49 +2417,49 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[2, 5, 6, 9, 10, 12, 14, 16, 17, 18, 26, 27, 29, 31, 34, 35, 37, 38, 41, 43]</t>
+          <t>[1, 7, 11, 12, 13, 14, 17, 19, 20, 21, 24, 25, 29, 30, 32, 33, 34, 35, 36, 42, 43]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.38749999999999996</t>
+          <t>0.41222222222222227</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.04701130048604938</t>
+          <t>0.04721057618153722</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.06449180504830213</t>
+          <t>11.185905613621495</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.938394923214277</t>
+          <t>-2497.5553220344673</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.36542487144470215</t>
+          <t>1.3630712032318115</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[0, 6, 7, 8, 12, 13, 14, 18, 19, 20, 24, 25, 26, 31, 32, 33, 37, 38, 39, 42]</t>
+          <t>[1, 2, 6, 8, 11, 12, 13, 15, 17, 23, 25, 26, 27, 28, 29, 31, 33, 35, 42, 43]</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2469,249 +2469,249 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.6738095238095239</t>
+          <t>0.7123809523809523</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.05308969852015312</t>
+          <t>0.05663581734286895</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.052507397817810074</t>
+          <t>0.2409413680287836</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.9591635077708613</t>
+          <t>-0.15922946855480125</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.3658769130706787</t>
+          <t>1.4503779411315918</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[2, 3, 9, 10, 11, 12, 23, 24, 26, 28, 30, 35, 37, 43, 44]</t>
+          <t>[1, 3, 5, 6, 7, 9, 10, 14, 16, 17, 21, 22, 23, 25, 29, 30, 31, 32, 33, 34, 35, 36, 39]</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.43134920634920637</t>
+          <t>0.4858730158730159</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.039305293355230905</t>
+          <t>0.049414351806559974</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.06386031327236041</t>
+          <t>8.418354324587199</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.9395954674805165</t>
+          <t>-1414.1454230166871</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.36581873893737793</t>
+          <t>1.3558924198150635</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[1, 2, 4, 8, 11, 12, 18, 19, 20, 25, 26, 31, 37, 38, 39, 40, 41, 42, 44]</t>
+          <t>[1, 2, 5, 6, 7, 8, 10, 12, 13, 15, 17, 22, 27, 29, 30, 31, 33, 35, 36, 37, 38, 40, 42]</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.7944444444444445</t>
+          <t>0.5882539682539683</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.06286369121512017</t>
+          <t>0.050339740901369986</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.027283296826457762</t>
+          <t>0.18218328781167561</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.988974427887992</t>
+          <t>0.3372286299621583</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.36963725090026855</t>
+          <t>1.363736629486084</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 6, 8, 9, 10, 18, 20, 24, 26, 30, 32, 35, 37, 39, 40, 41, 43, 44]</t>
+          <t>[0, 2, 4, 8, 9, 10, 12, 14, 16, 17, 28, 29, 30, 31, 33, 34, 35, 36, 37, 41, 42]</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.4646825396825397</t>
+          <t>0.6279365079365079</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.044188974487461834</t>
+          <t>0.0366595099917882</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.06169853830959229</t>
+          <t>0.17634226165946013</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.9436158303713268</t>
+          <t>0.3790459243097337</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.3671081066131592</t>
+          <t>1.4267528057098389</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[5, 7, 10, 11, 12, 14, 15, 18, 19, 21, 25, 27, 30, 32, 37, 39]</t>
+          <t>[8, 9, 10, 11, 12, 14, 15, 16, 17, 19, 20, 23, 25, 26, 27, 31, 32, 35, 36, 38, 39, 44]</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.44265873015873014</t>
+          <t>0.7058730158730159</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.0444930237671481</t>
+          <t>0.05810618915062168</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.05217328438623902</t>
+          <t>0.13273907115789904</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.9596815532850105</t>
+          <t>0.6481608055702073</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.3671102523803711</t>
+          <t>1.392282485961914</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[0, 1, 5, 8, 9, 14, 18, 20, 21, 35, 36, 37, 39, 40, 41, 44]</t>
+          <t>[0, 1, 3, 9, 10, 13, 14, 15, 20, 24, 25, 27, 29, 31, 32, 33, 34, 35, 37, 38, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.6515873015873016</t>
+          <t>0.685873015873016</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.04701967676631653</t>
+          <t>0.052032029893627485</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.06897980755013826</t>
+          <t>0.5751226859109698</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.9295223531770131</t>
+          <t>-5.604921595524726</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.36603641510009766</t>
+          <t>1.4833099842071533</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 6, 7, 8, 13, 21, 23, 24, 25, 26, 31, 32, 34, 36, 37, 38, 39, 41, 42]</t>
+          <t>[3, 4, 5, 6, 10, 12, 17, 20, 23, 24, 26, 27, 29, 30, 32, 37, 38, 39, 40, 42, 43]</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2721,405 +2721,405 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.7154761904761905</t>
+          <t>0.17365079365079364</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.04931301301936517</t>
+          <t>0.05026172818121392</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.07687046554995983</t>
+          <t>0.17767160600007884</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.9124761403936569</t>
+          <t>0.36964859524376514</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.365070104598999</t>
+          <t>1.4114253520965576</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 5, 10, 11, 17, 18, 25, 28, 35, 37, 43]</t>
+          <t>[0, 3, 4, 7, 8, 10, 12, 13, 14, 18, 20, 22, 24, 28, 29, 32, 33, 35, 36, 37, 39, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.2724206349206349</t>
+          <t>0.8485714285714285</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.04945548342726137</t>
+          <t>0.05274179148592897</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.0714721633328128</t>
+          <t>1.017245182622282</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.9243373943294948</t>
+          <t>-19.663217765136068</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.36831068992614746</t>
+          <t>1.4159462451934814</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[2, 3, 10, 15, 16, 17, 18, 20, 21, 23, 26, 27, 28, 33, 35, 37, 38, 39, 41, 42, 43]</t>
+          <t>[0, 3, 5, 6, 8, 9, 10, 12, 13, 14, 18, 19, 20, 22, 25, 26, 27, 28, 29, 33, 36, 40, 42, 44]</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.6361111111111111</t>
+          <t>0.8196825396825397</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.05163416155156429</t>
+          <t>0.046965904460655454</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.09543363390920313</t>
+          <t>1.402740639924895</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.865100493612456</t>
+          <t>-38.29175504793998</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.3667147159576416</t>
+          <t>1.3997993469238281</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[1, 4, 7, 9, 10, 12, 15, 16, 23, 28, 29, 32, 33, 34, 35, 37, 39, 44]</t>
+          <t>[3, 4, 6, 8, 13, 16, 20, 21, 23, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 39, 42, 44]</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.44047619047619047</t>
+          <t>0.7190476190476192</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.053808857103240314</t>
+          <t>0.032051179174789834</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.056838213113483874</t>
+          <t>0.27247745658116274</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.9521493027546295</t>
+          <t>-0.48254478839360804</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.37065911293029785</t>
+          <t>1.36519455909729</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 6, 7, 9, 10, 11, 12, 16, 17, 20, 23, 26, 27, 34, 35, 37, 38, 42, 43, 44]</t>
+          <t>[3, 5, 6, 8, 10, 11, 12, 13, 15, 20, 21, 23, 24, 28, 29, 30, 32, 33, 34, 35, 36, 39, 40, 41, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.589484126984127</t>
+          <t>0.7995238095238095</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.05885019397208565</t>
+          <t>0.05224750640090305</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.05304800418807432</t>
+          <t>0.26216175917920154</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.9583182891404484</t>
+          <t>-0.37241467808655515</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.36728978157043457</t>
+          <t>1.3439788818359375</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 5, 7, 11, 13, 17, 18, 20, 24, 29, 31, 33, 34, 37, 38]</t>
+          <t>[1, 2, 8, 10, 14, 15, 17, 20, 21, 27, 28, 30, 31, 33, 34, 35, 36, 40, 44]</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.3515873015873016</t>
+          <t>0.3185714285714286</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.06181042485215443</t>
+          <t>0.04943449769106618</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.05416916347580584</t>
+          <t>0.28923080180554545</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.956537800990388</t>
+          <t>-0.6704587358733487</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.36707258224487305</t>
+          <t>1.2607014179229736</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[0, 7, 8, 9, 10, 12, 17, 23, 27, 30, 31, 32, 37, 38, 40, 42, 43]</t>
+          <t>[0, 3, 5, 8, 13, 17, 20, 22, 24, 25, 26, 30, 32, 33, 34, 36, 38, 39, 44]</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.3831349206349206</t>
+          <t>0.4147619047619048</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.0580397925625518</t>
+          <t>0.049161419814892734</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.05204825786941286</t>
+          <t>0.2831203951483096</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.9598745576210019</t>
+          <t>-0.6006227322941415</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.3701941967010498</t>
+          <t>1.3265118598937988</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[0, 1, 6, 7, 8, 9, 11, 12, 16, 18, 19, 21, 24, 26, 30, 31, 34, 37, 38, 40]</t>
+          <t>[1, 2, 3, 8, 9, 11, 12, 13, 14, 15, 16, 18, 20, 23, 27, 28, 29, 30, 31, 32, 33, 34, 35, 37, 38, 41, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.5367063492063492</t>
+          <t>1.1128571428571428</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.04126061211081869</t>
+          <t>0.037955387423005985</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.04788926780286925</t>
+          <t>0.3161924726457295</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.9660309162917106</t>
+          <t>-0.9964099356548541</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.3683183193206787</t>
+          <t>1.3258771896362305</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[4, 9, 10, 13, 14, 17, 18, 24, 31, 33, 34, 37, 38, 43]</t>
+          <t>[1, 3, 6, 8, 10, 12, 17, 20, 22, 25, 26, 33, 36, 38, 40, 41, 44]</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.25436507936507935</t>
+          <t>0.43873015873015875</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.04943155595390017</t>
+          <t>0.05545526496736053</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.07126700753934068</t>
+          <t>0.13778382189152882</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.924771139241784</t>
+          <t>0.6209093060523717</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.365480899810791</t>
+          <t>1.4443333148956299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[7, 8, 9, 11, 12, 13, 21, 22, 24, 25, 31, 34, 36, 37, 38, 39, 41, 42, 43, 44]</t>
+          <t>[1, 2, 3, 8, 9, 14, 15, 18, 22, 24, 26, 27, 28, 29, 31, 32, 33, 34, 35, 36, 40, 44]</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.7494047619047619</t>
+          <t>0.6255555555555555</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.05308994817192497</t>
+          <t>0.04218118127427051</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.07465758612305558</t>
+          <t>0.9974561766073575</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.9174427294653704</t>
+          <t>-18.867092642262527</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.36449432373046875</t>
+          <t>1.444753885269165</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3131,205 +3131,205 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[1, 2, 5, 7, 8, 9, 11, 12, 16, 17, 21, 24, 26, 27, 28, 29, 31, 36, 37, 38, 41, 42, 43]</t>
+          <t>[0, 2, 3, 6, 10, 11, 13, 14, 17, 18, 21, 24, 25, 27, 28, 29, 31, 32, 33, 34, 35, 36, 39, 40, 41, 43, 44]</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.9781746031746031</t>
+          <t>0.9620634920634921</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.04981545081454615</t>
+          <t>0.060160479230983444</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.06351426527653707</t>
+          <t>0.2595624173888461</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.9402483372156194</t>
+          <t>-0.34533453090733124</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.37140917778015137</t>
+          <t>1.359879732131958</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[2, 4, 10, 12, 15, 16, 20, 21, 22, 23, 24, 26, 29, 31, 32, 39, 43, 44]</t>
+          <t>[0, 1, 6, 8, 10, 12, 15, 16, 20, 21, 22, 26, 27, 30, 33, 34, 36, 38, 39, 42, 44]</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.18035714285714285</t>
+          <t>0.5680952380952381</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.07051493995816843</t>
+          <t>0.05376264108677077</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.05219006611735901</t>
+          <t>0.0785524987401451</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.959655611956704</t>
+          <t>0.8767841214941116</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.36415767669677734</t>
+          <t>1.3055970668792725</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[1, 4, 8, 11, 12, 21, 23, 25, 26, 28, 32, 34, 35, 37, 38, 44]</t>
+          <t>[0, 1, 2, 3, 8, 9, 12, 16, 21, 22, 24, 28, 35, 36, 39, 40, 43, 44]</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.6811507936507937</t>
+          <t>0.5347619047619048</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.039445462248141515</t>
+          <t>0.06430708008289217</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.04573828864058267</t>
+          <t>0.09893248776124212</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.9690138756095946</t>
+          <t>0.804555015984676</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.36554479598999023</t>
+          <t>1.3366754055023193</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[0, 4, 8, 9, 10, 11, 13, 23, 24, 27, 28, 29, 31, 33, 34, 35, 37, 39, 41]</t>
+          <t>[1, 3, 6, 8, 9, 11, 14, 16, 21, 22, 26, 28, 30, 31, 33, 35, 37, 38, 41, 43]</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.751984126984127</t>
+          <t>0.9931746031746032</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.048083359992939514</t>
+          <t>0.05494996516153918</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.057863449628017136</t>
+          <t>0.1221794549950991</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.9504074909989777</t>
+          <t>0.7019130001171605</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.3678596019744873</t>
+          <t>1.5226094722747803</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[3, 6, 8, 10, 12, 13, 14, 15, 18, 22, 23, 24, 29, 31, 32, 36, 37, 42]</t>
+          <t>[1, 3, 4, 5, 8, 9, 11, 13, 14, 15, 16, 21, 23, 27, 29, 30, 31, 33, 34, 35, 36, 38, 41, 43]</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.5041666666666667</t>
+          <t>0.8106349206349206</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.03672882497020681</t>
+          <t>0.038368412008146016</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.06860136063994964</t>
+          <t>0.1845463538722821</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.930293560943928</t>
+          <t>0.3199237518041005</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.366192102432251</t>
+          <t>1.4627115726470947</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3341,37 +3341,37 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[1, 2, 4, 7, 8, 9, 11, 15, 20, 23, 24, 31, 36, 37, 42, 44]</t>
+          <t>[4, 8, 9, 15, 24, 26, 29, 34, 36, 37, 38, 39, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.5083333333333333</t>
+          <t>0.4768253968253968</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.0446261787755631</t>
+          <t>0.047952546340501764</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.06975399540909599</t>
+          <t>0.13262872946473278</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.927931478071842</t>
+          <t>0.6487455075142521</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.36401891708374023</t>
+          <t>1.4670472145080566</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3383,37 +3383,37 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[1, 2, 6, 8, 10, 13, 14, 18, 23, 24, 27, 28, 30, 33, 34, 36, 37, 38, 39]</t>
+          <t>[1, 3, 4, 6, 7, 8, 11, 14, 15, 17, 19, 20, 23, 24, 25, 26, 30, 31, 32, 33, 34, 35, 36, 39, 41, 44]</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.7251984126984127</t>
+          <t>0.9001587301587302</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.047967466483011346</t>
+          <t>0.04483525869616616</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.07933095564347578</t>
+          <t>0.2843051034119568</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.9067834962000536</t>
+          <t>-0.6140462683813159</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.36680006980895996</t>
+          <t>1.4773106575012207</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3425,121 +3425,121 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[3, 4, 6, 8, 10, 11, 12, 19, 23, 28, 29, 30, 36, 37, 39, 41]</t>
+          <t>[2, 8, 9, 10, 12, 17, 22, 23, 25, 29, 30, 33, 35, 36, 37, 39, 43, 44]</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.5847222222222221</t>
+          <t>0.2495238095238095</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.045015784350766044</t>
+          <t>0.05104035119566395</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.05981434183260373</t>
+          <t>0.21279562871846167</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.9470070501808696</t>
+          <t>0.09578423702262617</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.3637268543243408</t>
+          <t>1.444911241531372</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 10, 12, 13, 15, 16, 17, 21, 24, 30, 31, 37, 42]</t>
+          <t>[0, 3, 4, 8, 12, 13, 17, 19, 20, 21, 25, 26, 28, 30, 31, 32, 33, 34, 35, 36, 39, 43]</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.1630952380952381</t>
+          <t>0.4477777777777778</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.03975614265202421</t>
+          <t>0.035887023943608556</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.04413726671568131</t>
+          <t>7.787185103508729</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.9711451840485696</t>
+          <t>-1209.8982880966344</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.36487674713134766</t>
+          <t>1.4572021961212158</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 4, 11, 13, 14, 15, 17, 26, 28, 32, 33, 35, 37, 39, 40, 43]</t>
+          <t>[1, 6, 7, 11, 12, 15, 20, 23, 24, 27, 29, 30, 31, 32, 33, 34, 35, 36, 40, 42, 44]</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.8990079365079365</t>
+          <t>0.2779365079365079</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.04802778124626938</t>
+          <t>0.04303445066615717</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.07442110329501603</t>
+          <t>0.3120727571378489</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.9179649123280008</t>
+          <t>-0.9447258401379288</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.3648531436920166</t>
+          <t>1.4771718978881836</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3551,457 +3551,457 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>[1, 3, 5, 7, 10, 12, 15, 19, 24, 25, 26, 28, 30, 31, 32, 34, 37, 39]</t>
+          <t>[0, 1, 5, 6, 10, 11, 13, 14, 17, 22, 23, 25, 28, 29, 32, 34, 35, 36, 37, 42, 44]</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.6450396825396826</t>
+          <t>0.7749206349206349</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.04724429826691912</t>
+          <t>0.05418353270700096</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.04407689771964188</t>
+          <t>0.15263766198693224</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.9712240627435063</t>
+          <t>0.5347674642111313</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.3644728660583496</t>
+          <t>1.5791902542114258</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[2, 3, 12, 14, 16, 18, 22, 24, 27, 29, 35, 37, 39, 41]</t>
+          <t>[0, 3, 6, 8, 11, 13, 20, 24, 25, 29, 34, 36]</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.3007936507936508</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.04418724678713377</t>
+          <t>0.05913184851956891</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.06302117061491662</t>
+          <t>0.054313832290577235</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.9411725030404491</t>
+          <t>0.9410929108578138</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.36230897903442383</t>
+          <t>1.4165616035461426</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[0, 1, 6, 8, 9, 11, 12, 13, 14, 16, 18, 25, 26, 27, 28, 32, 34, 35, 37, 38, 41]</t>
+          <t>[1, 2, 3, 5, 8, 9, 13, 19, 21, 26, 29, 30, 32, 33, 34, 35, 36, 38, 39, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.057936507936508</t>
+          <t>0.46777777777777774</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.03264774106899671</t>
+          <t>0.05600736779184405</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.052014352163663784</t>
+          <t>0.2911148717748639</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.9599268182871606</t>
+          <t>-0.6922925921621179</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.36618852615356445</t>
+          <t>1.5453383922576904</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[8, 9, 14, 15, 16, 17, 21, 23, 24, 36, 37, 38, 41, 42, 43]</t>
+          <t>[5, 6, 10, 11, 12, 17, 19, 26, 27, 28, 29, 31, 33, 35, 37, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.348015873015873</t>
+          <t>0.7392063492063492</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.055598748301521686</t>
+          <t>0.04612722477671231</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.06278743655196176</t>
+          <t>0.1712116257460879</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.9416080548284507</t>
+          <t>0.41465330405565237</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.3663904666900635</t>
+          <t>1.352025032043457</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[1, 6, 7, 11, 12, 13, 14, 16, 19, 21, 24, 25, 29, 31, 33, 37, 38, 42]</t>
+          <t>[0, 1, 2, 6, 7, 11, 12, 13, 14, 16, 17, 20, 25, 26, 28, 29, 30, 31, 32, 36, 38, 39, 41]</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.4170634920634921</t>
+          <t>1.0552380952380953</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.05095328195397604</t>
+          <t>0.0698477763320416</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.05194708518804747</t>
+          <t>0.4390044485643115</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.9600303996487188</t>
+          <t>-2.8484381497707942</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.36511969566345215</t>
+          <t>1.3962342739105225</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[2, 4, 6, 7, 10, 19, 20, 21, 24, 27, 34, 37, 39]</t>
+          <t>[1, 3, 4, 9, 10, 11, 18, 19, 28, 29, 30, 32, 33, 35, 36, 39, 40, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.12738095238095237</t>
+          <t>0.7947619047619048</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.05151153071650285</t>
+          <t>0.05268618457873433</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.07374324048579049</t>
+          <t>0.23193974889519692</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.9194525355434426</t>
+          <t>-0.0742294002483741</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.36946868896484375</t>
+          <t>1.484144926071167</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 7, 9, 11, 12, 14, 17, 20, 21, 34, 35, 36, 37, 40, 41, 44]</t>
+          <t>[1, 3, 4, 5, 8, 9, 11, 12, 14, 15, 16, 20, 23, 26, 27, 28, 32, 35, 36, 37, 38, 43, 44]</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.6009920634920635</t>
+          <t>1.0574603174603174</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.041139939994973805</t>
+          <t>0.05231735060876356</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.0745927645258231</t>
+          <t>0.13343417549443362</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.9175860282564052</t>
+          <t>0.6444662596499011</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.3687903881072998</t>
+          <t>1.4715979099273682</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 6, 7, 8, 10, 11, 12, 13, 14, 15, 22, 24, 25, 30, 31, 32, 36, 37, 38, 39, 40, 41, 43]</t>
+          <t>[2, 3, 4, 6, 9, 10, 13, 15, 17, 18, 19, 20, 26, 27, 33, 34, 36, 39, 40, 42, 44]</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1.1091269841269842</t>
+          <t>0.4077777777777778</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.04616855949577458</t>
+          <t>0.05372063328996609</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.0780699693671373</t>
+          <t>0.09904782735091859</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.9097233455679035</t>
+          <t>0.8040990346324084</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.3642110824584961</t>
+          <t>1.485694169998169</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[5, 8, 9, 10, 12, 13, 14, 15, 18, 24, 28, 29, 30, 32, 35, 37, 38, 40, 41, 42, 44]</t>
+          <t>[3, 6, 9, 13, 16, 20, 22, 24, 29, 30, 33, 34, 36, 37, 38, 39, 41]</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.6339285714285714</t>
+          <t>0.352063492063492</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.06770943953347938</t>
+          <t>0.06054374430786148</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.05692230342633825</t>
+          <t>0.1286412900628965</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.9520076108748933</t>
+          <t>0.6695487170168108</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.37046027183532715</t>
+          <t>1.4280211925506592</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>[0, 2, 6, 8, 12, 14, 18, 19, 22, 24, 30, 35, 37, 39, 41, 44]</t>
+          <t>[0, 1, 6, 7, 8, 11, 16, 22, 24, 25, 26, 27, 29, 30, 31, 33, 34, 35, 36, 42, 44]</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.5436507936507937</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.04194948409822178</t>
+          <t>0.038134960670398954</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.06449961962661292</t>
+          <t>0.17057652973775977</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.9383799927323774</t>
+          <t>0.41898784450901105</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.3682830333709717</t>
+          <t>1.436708927154541</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 5, 7, 8, 9, 11, 16, 19, 21, 22, 24, 26, 27, 28, 29, 32, 34, 35, 36, 37, 39, 40, 42, 43]</t>
+          <t>[0, 4, 5, 6, 10, 13, 14, 16, 17, 25, 26, 27, 28, 29, 30, 31, 33, 37, 41, 44]</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1.2498015873015873</t>
+          <t>0.41873015873015873</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.062425660386911205</t>
+          <t>0.05666820002679782</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.09910548793991149</t>
+          <t>0.3614146942984373</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.8545201493858884</t>
+          <t>-1.6083044420498518</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.3705720901489258</t>
+          <t>1.412644624710083</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4013,259 +4013,259 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>[5, 7, 10, 11, 12, 14, 18, 19, 23, 24, 31, 32, 33, 34, 35, 37, 39, 42, 43]</t>
+          <t>[3, 4, 5, 6, 7, 9, 12, 14, 16, 17, 20, 24, 26, 27, 30, 32, 34, 35, 36, 37, 39]</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.5922619047619048</t>
+          <t>0.3717460317460317</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.046012948058802336</t>
+          <t>0.05869410600057946</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.06307904517845023</t>
+          <t>0.4076523031583999</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.9410644066986511</t>
+          <t>-2.3183826931617917</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.36617279052734375</t>
+          <t>1.4937705993652344</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[3, 5, 8, 11, 20, 22, 26, 29, 30, 37, 38, 40]</t>
+          <t>[0, 4, 6, 10, 11, 14, 16, 19, 20, 27, 28, 30, 31, 32, 33, 34, 35, 36, 38, 39, 40, 44]</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.32539682539682535</t>
+          <t>0.7906349206349206</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.04456947158478146</t>
+          <t>0.04156781964155654</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.0597055587550985</t>
+          <t>0.32003587022953073</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.9471996292142291</t>
+          <t>-1.0452386167790881</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.3647420406341553</t>
+          <t>1.6037788391113281</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 9, 10, 12, 13, 14, 15, 16, 22, 25, 30, 37, 38, 40, 41]</t>
+          <t>[1, 4, 5, 10, 11, 18, 25, 29, 30, 33, 35, 37, 39, 41, 43]</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.5452380952380952</t>
+          <t>0.3988888888888889</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.05418506305724215</t>
+          <t>0.05353370037526757</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.06403562646993985</t>
+          <t>0.27569711036991884</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.9392633598863084</t>
+          <t>-0.5177879389718587</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.3688642978668213</t>
+          <t>1.4033255577087402</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[2, 3, 6, 12, 13, 17, 20, 22, 26, 27, 36, 37]</t>
+          <t>[1, 2, 3, 5, 6, 10, 11, 13, 15, 16, 20, 22, 23, 24, 29, 30, 31, 32, 33, 34, 35, 37, 44]</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.2376984126984127</t>
+          <t>0.36523809523809525</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.050615236328614324</t>
+          <t>0.05047751141045296</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.06458445571354639</t>
+          <t>0.3110288871347778</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.9382177890404995</t>
+          <t>-0.9317375499246539</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.36608052253723145</t>
+          <t>1.5731463432312012</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 9, 24, 27, 28, 29, 32, 34, 37, 42, 43]</t>
+          <t>[0, 1, 4, 5, 6, 9, 10, 11, 14, 19, 20, 22, 23, 26, 27, 28, 29, 30, 31, 32, 33, 35, 37, 40, 43]</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.3099206349206349</t>
+          <t>0.9080952380952381</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.04652331260228074</t>
+          <t>0.05571115427757389</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.052726392527457644</t>
+          <t>0.18419365788461525</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.9588221606256973</t>
+          <t>0.32252072491678074</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.3646090030670166</t>
+          <t>1.5534389019012451</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[3, 5, 7, 11, 12, 14, 15, 18, 21, 23, 24, 29, 30, 31, 34, 35, 37, 38, 39]</t>
+          <t>[1, 4, 8, 10, 11, 13, 20, 25, 26, 33, 34, 36, 39, 40, 42]</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.2924603174603175</t>
+          <t>0.5125396825396826</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.0388701559091852</t>
+          <t>0.05316470412639346</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.06246750409160556</t>
+          <t>0.0627154280813915</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.9422016093389373</t>
+          <t>0.921459176414769</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.36141514778137207</t>
+          <t>1.428647756576538</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[0, 2, 4, 6, 7, 9, 11, 12, 14, 17, 18, 20, 24, 26, 31, 32, 34, 37, 42]</t>
+          <t>[7, 8, 14, 16, 17, 19, 25, 26, 27, 29, 31, 32, 33, 34, 35, 37, 38, 42, 44]</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4275,111 +4275,111 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.5152777777777777</t>
+          <t>0.3477777777777778</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.05067048194539849</t>
+          <t>0.03784145069937536</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.04919782954010411</t>
+          <t>0.3128162961134233</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.9641491608853059</t>
+          <t>-0.9540038178418404</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.36844849586486816</t>
+          <t>1.5067548751831055</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[0, 3, 5, 6, 7, 10, 15, 16, 18, 19, 21, 23, 29, 31, 37, 40]</t>
+          <t>[2, 3, 6, 8, 9, 10, 11, 14, 16, 18, 22, 27, 28, 29, 31, 32, 33, 35, 40]</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.1464285714285714</t>
+          <t>0.8526984126984127</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.0484214466791988</t>
+          <t>0.05535135366771378</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.04791992605772297</t>
+          <t>0.18707807779978045</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.9659874089995351</t>
+          <t>0.30113632622818054</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.36806392669677734</t>
+          <t>1.4185309410095215</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 8, 9, 10, 11, 13, 20, 22, 23, 27, 31, 32, 33, 36, 37, 38, 40, 42]</t>
+          <t>[0, 3, 4, 5, 6, 8, 11, 13, 14, 17, 18, 21, 23, 24, 25, 26, 27, 29, 31, 32, 33, 34, 35, 36, 39, 40, 41, 42]</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.8498015873015873</t>
+          <t>0.9176190476190476</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.058954719233245266</t>
+          <t>0.041935798255650664</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.07262069528671787</t>
+          <t>0.3188849451468937</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.921886114012578</t>
+          <t>-1.0305547389951766</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.37263011932373047</t>
+          <t>1.4123342037200928</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4391,37 +4391,37 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 5, 8, 10, 11, 12, 14, 21, 23, 24, 25, 32, 35, 37, 38, 40, 43]</t>
+          <t>[0, 1, 3, 4, 5, 6, 8, 9, 10, 11, 12, 13, 14, 18, 20, 22, 24, 29, 30, 32, 33, 34, 35, 36, 37, 38, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.705952380952381</t>
+          <t>1.2136507936507934</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.045689108409618415</t>
+          <t>0.04225372682104421</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.07384164389483691</t>
+          <t>0.46062810319312775</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.9192374261073132</t>
+          <t>-3.2368933381982457</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.36145806312561035</t>
+          <t>1.521146297454834</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4433,37 +4433,37 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[0, 3, 4, 6, 8, 9, 12, 14, 15, 18, 19, 20, 22, 23, 30, 31, 34, 36, 37, 38, 39, 40, 41, 42, 43]</t>
+          <t>[1, 3, 4, 5, 6, 7, 8, 9, 10, 13, 17, 23, 29, 30, 32, 33, 34, 35, 36, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1.0789682539682541</t>
+          <t>0.47412698412698406</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.053560820511328454</t>
+          <t>0.04118332267766474</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.06761792396376802</t>
+          <t>0.22910710328938685</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.9322777928748125</t>
+          <t>-0.04815081825379042</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.3702843189239502</t>
+          <t>1.4509918689727783</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4475,210 +4475,210 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[2, 8, 10, 11, 12, 14, 15, 16, 17, 18, 20, 23, 24, 28, 30, 32, 34, 35, 37, 39]</t>
+          <t>[0, 4, 5, 7, 11, 14, 15, 17, 24, 26, 28, 29, 33, 36, 39, 40, 43, 44]</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.47579365079365077</t>
+          <t>0.5212698412698413</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.03926322344753565</t>
+          <t>0.056339390272072055</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.05017781594762278</t>
+          <t>0.30686227313576836</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.9627066886823006</t>
+          <t>-0.8803282227810596</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.3638758659362793</t>
+          <t>1.4197638034820557</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[1, 6, 7, 8, 9, 10, 12, 14, 15, 16, 23, 24, 27, 29, 30, 31, 34, 37, 39]</t>
+          <t>[0, 1, 6, 9, 12, 13, 14, 17, 19, 20, 21, 25, 27, 29, 31, 33, 34, 36, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.44305555555555554</t>
+          <t>0.483015873015873</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.04961377921690087</t>
+          <t>0.05558427390386498</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.052681903485238595</t>
+          <t>0.228288243887909</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.9588916207069751</t>
+          <t>-0.040671745618138466</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.3642435073852539</t>
+          <t>1.565464973449707</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 7, 9, 11, 16, 21, 25, 26, 27, 29, 30, 32, 37, 39, 42, 43]</t>
+          <t>[0, 3, 5, 8, 10, 13, 16, 20, 23, 24, 29, 34, 35, 36, 42]</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.48432539682539677</t>
+          <t>0.24746031746031744</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.05895629543345745</t>
+          <t>0.053306068750427614</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.052578006409473854</t>
+          <t>0.0778828313389741</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.9590536053176629</t>
+          <t>0.8788760202913799</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.36628031730651855</t>
+          <t>1.5083889961242676</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 7, 9, 10, 12, 13, 14, 16, 19, 22, 29, 34, 35, 36, 37, 41, 44]</t>
+          <t>[0, 1, 3, 4, 5, 8, 10, 13, 17, 18, 19, 24, 25, 26, 28, 29, 31, 32, 33, 34, 35, 36, 38, 39, 41, 43]</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.5996031746031746</t>
+          <t>1.0334920634920635</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.03906305936486507</t>
+          <t>0.03388515596594456</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.07195433718279015</t>
+          <t>5.986716588225558</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.923313062910967</t>
+          <t>-714.6885466690422</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.3689730167388916</t>
+          <t>1.5312919616699219</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 7, 8, 10, 12, 14, 17, 18, 20, 21, 23, 24, 26, 30, 32, 37, 38, 39, 40, 41, 42]</t>
+          <t>[2, 3, 5, 6, 8, 10, 11, 14, 16, 17, 22, 24, 26, 28, 29, 31, 33, 35]</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.6390873015873015</t>
+          <t>0.6949206349206349</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.05460860994831527</t>
+          <t>0.05744607056126638</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.07171922117251925</t>
+          <t>0.1515219751959981</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.9238134043689978</t>
+          <t>0.5415437317095662</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.3688392639160156</t>
+          <t>1.4137992858886719</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
